--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan C\GithubRepos\polytopiacalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAD7D671-9706-420C-9DC2-C5C3445D4E2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424EA97C-4E06-41B4-B095-97A1470A5CAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="21864" windowHeight="9060" xr2:uid="{28B1E2BC-066A-4B68-9EAA-9D7B0DBC784D}"/>
+    <workbookView xWindow="2352" yWindow="0" windowWidth="21864" windowHeight="9060" xr2:uid="{28B1E2BC-066A-4B68-9EAA-9D7B0DBC784D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Warrior</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Wall Def</t>
+  </si>
+  <si>
+    <t>Will Retaliate</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E4D085-B97E-44C0-992A-598CDFA3445F}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,9 +501,10 @@
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>21</v>
@@ -529,8 +533,11 @@
       <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +568,11 @@
       <c r="J2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,8 +603,11 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -625,8 +638,11 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -657,8 +673,11 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,8 +708,11 @@
       <c r="J6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -721,8 +743,11 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -753,8 +778,11 @@
       <c r="J8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -785,8 +813,11 @@
       <c r="J9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -817,8 +848,11 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -849,8 +883,11 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,8 +918,11 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -913,8 +953,11 @@
       <c r="J13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -945,8 +988,11 @@
       <c r="J14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,8 +1023,11 @@
       <c r="J15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1058,11 @@
       <c r="J16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1041,8 +1093,11 @@
       <c r="J17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1073,8 +1128,11 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1105,8 +1163,11 @@
       <c r="J19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1137,8 +1198,11 @@
       <c r="J20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1169,8 +1233,11 @@
       <c r="J21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1201,11 +1268,14 @@
       <c r="J22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I24" s="2"/>
     </row>
   </sheetData>
